--- a/backend/Student(Responses).xlsx
+++ b/backend/Student(Responses).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\JP Morgan\mongodb\Team-11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\JP Morgan\1\Team-11\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE97E20-232E-4A0F-ADC7-FACD43FA4D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB18A8AC-CCD4-4FC2-8D64-E4F81086CB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,9 +106,6 @@
     <t>Aman Verma</t>
   </si>
   <si>
-    <t>aman.verma@example.com</t>
-  </si>
-  <si>
     <t>123 Park Road, New Delhi, India</t>
   </si>
   <si>
@@ -118,9 +115,6 @@
     <t>Priya Patel</t>
   </si>
   <si>
-    <t>priya.patel@example.com</t>
-  </si>
-  <si>
     <t>456 Street, Mumbai, India</t>
   </si>
   <si>
@@ -130,9 +124,6 @@
     <t>Rahul Gupta</t>
   </si>
   <si>
-    <t>rahul.gupta@example.com</t>
-  </si>
-  <si>
     <t>789 Lane, Bangalore, India</t>
   </si>
   <si>
@@ -142,9 +133,6 @@
     <t>Anita Singh</t>
   </si>
   <si>
-    <t>anita.singh@example.com</t>
-  </si>
-  <si>
     <t>987 Avenue, Kolkata, India</t>
   </si>
   <si>
@@ -154,9 +142,6 @@
     <t>Sanjay Sharma</t>
   </si>
   <si>
-    <t>sanjay.sharma@example.com</t>
-  </si>
-  <si>
     <t>123 Road, Chennai, India</t>
   </si>
   <si>
@@ -166,9 +151,6 @@
     <t>Neha Verma</t>
   </si>
   <si>
-    <t>neha.verma@example.com</t>
-  </si>
-  <si>
     <t>456 Street, New Delhi, India</t>
   </si>
   <si>
@@ -178,9 +160,6 @@
     <t>Vikram Patel</t>
   </si>
   <si>
-    <t>vikram.patel@example.com</t>
-  </si>
-  <si>
     <t>789 Lane, Mumbai, India</t>
   </si>
   <si>
@@ -190,9 +169,6 @@
     <t>Anjali Gupta</t>
   </si>
   <si>
-    <t>anjali.gupta@example.com</t>
-  </si>
-  <si>
     <t>987 Avenue, Bangalore, India</t>
   </si>
   <si>
@@ -202,9 +178,6 @@
     <t>Aakash Singh</t>
   </si>
   <si>
-    <t>aakash.singh@example.com</t>
-  </si>
-  <si>
     <t>123 Road, Kolkata, India</t>
   </si>
   <si>
@@ -214,97 +187,124 @@
     <t>Rina Verma</t>
   </si>
   <si>
-    <t>rina.verma@example.com</t>
-  </si>
-  <si>
     <t>456 Street, Chennai, India</t>
   </si>
   <si>
     <t>Manoj Patel</t>
   </si>
   <si>
-    <t>manoj.patel@example.com</t>
-  </si>
-  <si>
     <t>789 Lane, New Delhi, India</t>
   </si>
   <si>
     <t>Sneha Sharma</t>
   </si>
   <si>
-    <t>sneha.sharma@example.com</t>
-  </si>
-  <si>
     <t>987 Avenue, Mumbai, India</t>
   </si>
   <si>
     <t>Rajat Verma</t>
   </si>
   <si>
-    <t>rajat.verma@example.com</t>
-  </si>
-  <si>
     <t>123 Road, Bangalore, India</t>
   </si>
   <si>
     <t>Pooja Singh</t>
   </si>
   <si>
-    <t>pooja.singh@example.com</t>
-  </si>
-  <si>
     <t>456 Street, Kolkata, India</t>
   </si>
   <si>
     <t>Vinay Sharma</t>
   </si>
   <si>
-    <t>vinay.sharma@example.com</t>
-  </si>
-  <si>
     <t>789 Lane, Chennai, India</t>
   </si>
   <si>
     <t>Kavita Patel</t>
   </si>
   <si>
-    <t>kavita.patel@example.com</t>
-  </si>
-  <si>
     <t>987 Avenue, New Delhi, India</t>
   </si>
   <si>
     <t>Rajesh Gupta</t>
   </si>
   <si>
-    <t>rajesh.gupta@example.com</t>
-  </si>
-  <si>
     <t>123 Road, Mumbai, India</t>
   </si>
   <si>
     <t>Divya Singh</t>
   </si>
   <si>
-    <t>divya.singh@example.com</t>
-  </si>
-  <si>
     <t>456 Street, Bangalore, India</t>
   </si>
   <si>
     <t>Amit Verma</t>
   </si>
   <si>
-    <t>amit.verma@example.com</t>
-  </si>
-  <si>
     <t>789 Lane, Kolkata, India</t>
   </si>
   <si>
     <t>Anita Patel</t>
   </si>
   <si>
-    <t>anita.patel@example.com</t>
+    <t>aman.verma@gmail.com</t>
+  </si>
+  <si>
+    <t>priya.patel@gmail.com</t>
+  </si>
+  <si>
+    <t>rahul.gupta@gmail.com</t>
+  </si>
+  <si>
+    <t>anita.singh@gmail.com</t>
+  </si>
+  <si>
+    <t>sanjay.sharma@gmail.com</t>
+  </si>
+  <si>
+    <t>neha.verma@gmail.com</t>
+  </si>
+  <si>
+    <t>vikram.patel@gmail.com</t>
+  </si>
+  <si>
+    <t>anjali.gupta@gmail.com</t>
+  </si>
+  <si>
+    <t>aakash.singh@gmail.com</t>
+  </si>
+  <si>
+    <t>rina.verma@gmail.com</t>
+  </si>
+  <si>
+    <t>manoj.patel@gmail.com</t>
+  </si>
+  <si>
+    <t>sneha.sharma@gmail.com</t>
+  </si>
+  <si>
+    <t>rajat.verma@gmail.com</t>
+  </si>
+  <si>
+    <t>pooja.singh@gmail.com</t>
+  </si>
+  <si>
+    <t>vinay.sharma@gmail.com</t>
+  </si>
+  <si>
+    <t>kavita.patel@gmail.com</t>
+  </si>
+  <si>
+    <t>rajesh.gupta@gmail.com</t>
+  </si>
+  <si>
+    <t>divya.singh@gmail.com</t>
+  </si>
+  <si>
+    <t>amit.verma@gmail.com</t>
+  </si>
+  <si>
+    <t>anita.patel@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -625,8 +625,8 @@
   <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -659,13 +659,13 @@
         <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
@@ -676,16 +676,16 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
@@ -696,16 +696,16 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>25</v>
@@ -716,16 +716,16 @@
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>18</v>
@@ -736,16 +736,16 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
@@ -756,16 +756,16 @@
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>23</v>
@@ -776,16 +776,16 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>21</v>
@@ -796,16 +796,16 @@
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>15</v>
@@ -816,16 +816,16 @@
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>26</v>
@@ -836,16 +836,16 @@
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>13</v>
@@ -856,16 +856,16 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>8</v>
@@ -876,16 +876,16 @@
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>24</v>
@@ -896,16 +896,16 @@
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>15</v>
@@ -916,16 +916,16 @@
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>18</v>
@@ -936,16 +936,16 @@
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>11</v>
@@ -956,16 +956,16 @@
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>23</v>
@@ -976,16 +976,16 @@
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>21</v>
@@ -996,16 +996,16 @@
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>15</v>
@@ -1016,16 +1016,16 @@
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>26</v>
@@ -1036,16 +1036,16 @@
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>13</v>
